--- a/Диплом/Форма для заполнения.xlsx
+++ b/Диплом/Форма для заполнения.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Desktop\Диплом\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Desktop\Diplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Контингент (очно)" sheetId="1" r:id="rId1"/>
-    <sheet name="Контингент (очно-заочная)" sheetId="5" r:id="rId2"/>
-    <sheet name="Контингент (заочная)" sheetId="4" r:id="rId3"/>
+    <sheet name="Контингент (очно-заочно)" sheetId="9" r:id="rId2"/>
+    <sheet name="Контингент (заочно)" sheetId="8" r:id="rId3"/>
     <sheet name="Специальности" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="128">
   <si>
     <t>Дата заполнения</t>
   </si>
@@ -415,10 +415,16 @@
     <t>6 курс</t>
   </si>
   <si>
-    <t>Очно-Заочная</t>
-  </si>
-  <si>
     <t>Заочная</t>
+  </si>
+  <si>
+    <t>из них на места в рамках квоты целевого приема</t>
+  </si>
+  <si>
+    <t>Очно-заочная</t>
+  </si>
+  <si>
+    <t>из них иностранные граждане</t>
   </si>
 </sst>
 </file>
@@ -478,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -494,7 +500,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -791,706 +803,1278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BY4"/>
+  <dimension ref="A1:ES4"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.88671875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="33.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="33.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="33.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="33.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="26.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="33.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="33.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="7.33203125" style="5" customWidth="1"/>
-    <col min="49" max="49" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="33.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="33.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="33.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="33.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="22.88671875" style="5" customWidth="1"/>
+    <col min="72" max="72" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="33.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="78" max="16384" width="8.88671875" style="5"/>
+    <col min="76" max="76" width="26.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="8.88671875" style="5"/>
+    <col min="79" max="79" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="15.77734375" style="5" customWidth="1"/>
+    <col min="86" max="86" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="8.88671875" style="5"/>
+    <col min="91" max="91" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="8.88671875" style="5"/>
+    <col min="103" max="103" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="8.88671875" style="5"/>
+    <col min="115" max="115" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="15.77734375" style="5" customWidth="1"/>
+    <col min="118" max="118" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="8.88671875" style="5"/>
+    <col min="127" max="127" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="8.88671875" style="5"/>
+    <col min="139" max="139" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="150" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:149" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9" t="s">
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="11"/>
+      <c r="AY1" s="11"/>
+      <c r="AZ1" s="11"/>
+      <c r="BA1" s="11"/>
+      <c r="BB1" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9" t="s">
+      <c r="BC1" s="11"/>
+      <c r="BD1" s="11"/>
+      <c r="BE1" s="11"/>
+      <c r="BF1" s="11"/>
+      <c r="BG1" s="11"/>
+      <c r="BH1" s="11"/>
+      <c r="BI1" s="11"/>
+      <c r="BJ1" s="11"/>
+      <c r="BK1" s="11"/>
+      <c r="BL1" s="11"/>
+      <c r="BM1" s="11"/>
+      <c r="BN1" s="11"/>
+      <c r="BO1" s="11"/>
+      <c r="BP1" s="11"/>
+      <c r="BQ1" s="11"/>
+      <c r="BR1" s="11"/>
+      <c r="BS1" s="11"/>
+      <c r="BT1" s="11"/>
+      <c r="BU1" s="11"/>
+      <c r="BV1" s="11"/>
+      <c r="BW1" s="11"/>
+      <c r="BX1" s="11"/>
+      <c r="BY1" s="11"/>
+      <c r="BZ1" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="AQ1" s="9"/>
-      <c r="AR1" s="9"/>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="9"/>
-      <c r="AU1" s="9"/>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
-      <c r="AY1" s="9"/>
-      <c r="AZ1" s="9"/>
-      <c r="BA1" s="9"/>
-      <c r="BB1" s="9" t="s">
+      <c r="CA1" s="11"/>
+      <c r="CB1" s="11"/>
+      <c r="CC1" s="11"/>
+      <c r="CD1" s="11"/>
+      <c r="CE1" s="11"/>
+      <c r="CF1" s="11"/>
+      <c r="CG1" s="11"/>
+      <c r="CH1" s="11"/>
+      <c r="CI1" s="11"/>
+      <c r="CJ1" s="11"/>
+      <c r="CK1" s="11"/>
+      <c r="CL1" s="11"/>
+      <c r="CM1" s="11"/>
+      <c r="CN1" s="11"/>
+      <c r="CO1" s="11"/>
+      <c r="CP1" s="11"/>
+      <c r="CQ1" s="11"/>
+      <c r="CR1" s="11"/>
+      <c r="CS1" s="11"/>
+      <c r="CT1" s="11"/>
+      <c r="CU1" s="11"/>
+      <c r="CV1" s="11"/>
+      <c r="CW1" s="11"/>
+      <c r="CX1" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="BC1" s="9"/>
-      <c r="BD1" s="9"/>
-      <c r="BE1" s="9"/>
-      <c r="BF1" s="9"/>
-      <c r="BG1" s="9"/>
-      <c r="BH1" s="9"/>
-      <c r="BI1" s="9"/>
-      <c r="BJ1" s="9"/>
-      <c r="BK1" s="9"/>
-      <c r="BL1" s="9"/>
-      <c r="BM1" s="9"/>
-      <c r="BN1" s="9" t="s">
+      <c r="CY1" s="11"/>
+      <c r="CZ1" s="11"/>
+      <c r="DA1" s="11"/>
+      <c r="DB1" s="11"/>
+      <c r="DC1" s="11"/>
+      <c r="DD1" s="11"/>
+      <c r="DE1" s="11"/>
+      <c r="DF1" s="11"/>
+      <c r="DG1" s="11"/>
+      <c r="DH1" s="11"/>
+      <c r="DI1" s="11"/>
+      <c r="DJ1" s="11"/>
+      <c r="DK1" s="11"/>
+      <c r="DL1" s="11"/>
+      <c r="DM1" s="11"/>
+      <c r="DN1" s="11"/>
+      <c r="DO1" s="11"/>
+      <c r="DP1" s="11"/>
+      <c r="DQ1" s="11"/>
+      <c r="DR1" s="11"/>
+      <c r="DS1" s="11"/>
+      <c r="DT1" s="11"/>
+      <c r="DU1" s="11"/>
+      <c r="DV1" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="BO1" s="9"/>
-      <c r="BP1" s="9"/>
-      <c r="BQ1" s="9"/>
-      <c r="BR1" s="9"/>
-      <c r="BS1" s="9"/>
-      <c r="BT1" s="9"/>
-      <c r="BU1" s="9"/>
-      <c r="BV1" s="9"/>
-      <c r="BW1" s="9"/>
-      <c r="BX1" s="9"/>
-      <c r="BY1" s="9"/>
-    </row>
-    <row r="2" spans="1:77" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="9" t="s">
+      <c r="DW1" s="11"/>
+      <c r="DX1" s="11"/>
+      <c r="DY1" s="11"/>
+      <c r="DZ1" s="11"/>
+      <c r="EA1" s="11"/>
+      <c r="EB1" s="11"/>
+      <c r="EC1" s="11"/>
+      <c r="ED1" s="11"/>
+      <c r="EE1" s="11"/>
+      <c r="EF1" s="11"/>
+      <c r="EG1" s="11"/>
+      <c r="EH1" s="11"/>
+      <c r="EI1" s="11"/>
+      <c r="EJ1" s="11"/>
+      <c r="EK1" s="11"/>
+      <c r="EL1" s="11"/>
+      <c r="EM1" s="11"/>
+      <c r="EN1" s="11"/>
+      <c r="EO1" s="11"/>
+      <c r="EP1" s="11"/>
+      <c r="EQ1" s="11"/>
+      <c r="ER1" s="11"/>
+      <c r="ES1" s="11"/>
+    </row>
+    <row r="2" spans="1:149" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9" t="s">
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9" t="s">
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="11"/>
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11"/>
+      <c r="AY2" s="11"/>
+      <c r="AZ2" s="11"/>
+      <c r="BA2" s="11"/>
+      <c r="BB2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9" t="s">
+      <c r="BC2" s="11"/>
+      <c r="BD2" s="11"/>
+      <c r="BE2" s="11"/>
+      <c r="BF2" s="11"/>
+      <c r="BG2" s="11"/>
+      <c r="BH2" s="11"/>
+      <c r="BI2" s="11"/>
+      <c r="BJ2" s="11"/>
+      <c r="BK2" s="11"/>
+      <c r="BL2" s="11"/>
+      <c r="BM2" s="11"/>
+      <c r="BN2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="9" t="s">
+      <c r="BO2" s="11"/>
+      <c r="BP2" s="11"/>
+      <c r="BQ2" s="11"/>
+      <c r="BR2" s="11"/>
+      <c r="BS2" s="11"/>
+      <c r="BT2" s="11"/>
+      <c r="BU2" s="11"/>
+      <c r="BV2" s="11"/>
+      <c r="BW2" s="11"/>
+      <c r="BX2" s="11"/>
+      <c r="BY2" s="11"/>
+      <c r="BZ2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="9"/>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="9"/>
-      <c r="AV2" s="9" t="s">
+      <c r="CA2" s="11"/>
+      <c r="CB2" s="11"/>
+      <c r="CC2" s="11"/>
+      <c r="CD2" s="11"/>
+      <c r="CE2" s="11"/>
+      <c r="CF2" s="11"/>
+      <c r="CG2" s="11"/>
+      <c r="CH2" s="11"/>
+      <c r="CI2" s="11"/>
+      <c r="CJ2" s="11"/>
+      <c r="CK2" s="11"/>
+      <c r="CL2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="AW2" s="9"/>
-      <c r="AX2" s="9"/>
-      <c r="AY2" s="9"/>
-      <c r="AZ2" s="9"/>
-      <c r="BA2" s="9"/>
-      <c r="BB2" s="9" t="s">
+      <c r="CM2" s="11"/>
+      <c r="CN2" s="11"/>
+      <c r="CO2" s="11"/>
+      <c r="CP2" s="11"/>
+      <c r="CQ2" s="11"/>
+      <c r="CR2" s="11"/>
+      <c r="CS2" s="11"/>
+      <c r="CT2" s="11"/>
+      <c r="CU2" s="11"/>
+      <c r="CV2" s="11"/>
+      <c r="CW2" s="11"/>
+      <c r="CX2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="BC2" s="9"/>
-      <c r="BD2" s="9"/>
-      <c r="BE2" s="9"/>
-      <c r="BF2" s="9"/>
-      <c r="BG2" s="9"/>
-      <c r="BH2" s="9" t="s">
+      <c r="CY2" s="11"/>
+      <c r="CZ2" s="11"/>
+      <c r="DA2" s="11"/>
+      <c r="DB2" s="11"/>
+      <c r="DC2" s="11"/>
+      <c r="DD2" s="11"/>
+      <c r="DE2" s="11"/>
+      <c r="DF2" s="11"/>
+      <c r="DG2" s="11"/>
+      <c r="DH2" s="11"/>
+      <c r="DI2" s="11"/>
+      <c r="DJ2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="BI2" s="9"/>
-      <c r="BJ2" s="9"/>
-      <c r="BK2" s="9"/>
-      <c r="BL2" s="9"/>
-      <c r="BM2" s="9"/>
-      <c r="BN2" s="9" t="s">
+      <c r="DK2" s="11"/>
+      <c r="DL2" s="11"/>
+      <c r="DM2" s="11"/>
+      <c r="DN2" s="11"/>
+      <c r="DO2" s="11"/>
+      <c r="DP2" s="11"/>
+      <c r="DQ2" s="11"/>
+      <c r="DR2" s="11"/>
+      <c r="DS2" s="11"/>
+      <c r="DT2" s="11"/>
+      <c r="DU2" s="11"/>
+      <c r="DV2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="BO2" s="9"/>
-      <c r="BP2" s="9"/>
-      <c r="BQ2" s="9"/>
-      <c r="BR2" s="9"/>
-      <c r="BS2" s="9"/>
-      <c r="BT2" s="9" t="s">
+      <c r="DW2" s="11"/>
+      <c r="DX2" s="11"/>
+      <c r="DY2" s="11"/>
+      <c r="DZ2" s="11"/>
+      <c r="EA2" s="11"/>
+      <c r="EB2" s="11"/>
+      <c r="EC2" s="11"/>
+      <c r="ED2" s="11"/>
+      <c r="EE2" s="11"/>
+      <c r="EF2" s="11"/>
+      <c r="EG2" s="11"/>
+      <c r="EH2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="BU2" s="9"/>
-      <c r="BV2" s="9"/>
-      <c r="BW2" s="9"/>
-      <c r="BX2" s="9"/>
-      <c r="BY2" s="9"/>
-    </row>
-    <row r="3" spans="1:77" ht="198" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="6" t="s">
+      <c r="EI2" s="11"/>
+      <c r="EJ2" s="11"/>
+      <c r="EK2" s="11"/>
+      <c r="EL2" s="11"/>
+      <c r="EM2" s="11"/>
+      <c r="EN2" s="11"/>
+      <c r="EO2" s="11"/>
+      <c r="EP2" s="11"/>
+      <c r="EQ2" s="11"/>
+      <c r="ER2" s="11"/>
+      <c r="ES2" s="11"/>
+    </row>
+    <row r="3" spans="1:149" ht="54" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="L3" s="6" t="s">
+      <c r="O3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="N3" s="6" t="s">
+      <c r="S3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="V3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="P3" s="6" t="s">
+      <c r="W3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z3" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="Q3" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="R3" s="8" t="s">
+      <c r="AA3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD3" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="S3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="T3" s="8" t="s">
+      <c r="AE3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="U3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="V3" s="8" t="s">
+      <c r="AI3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL3" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="W3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="X3" s="8" t="s">
+      <c r="AM3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP3" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="Y3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z3" s="8" t="s">
+      <c r="AQ3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AA3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AU3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AV3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX3" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="AC3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD3" s="8" t="s">
+      <c r="AY3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="BA3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB3" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="AE3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF3" s="8" t="s">
+      <c r="BC3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AG3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH3" s="8" t="s">
+      <c r="BG3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="BH3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ3" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="AI3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ3" s="8" t="s">
+      <c r="BK3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="BL3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="BN3" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="AK3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL3" s="8" t="s">
+      <c r="BO3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="BP3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="BQ3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AM3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN3" s="8" t="s">
+      <c r="BS3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="BT3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="BV3" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="AO3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP3" s="8" t="s">
+      <c r="BW3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="BX3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="BZ3" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="AQ3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR3" s="8" t="s">
+      <c r="CA3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="CB3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="CC3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="CD3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AS3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT3" s="8" t="s">
+      <c r="CE3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="CF3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="CG3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="CH3" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="AU3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AV3" s="8" t="s">
+      <c r="CI3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="CJ3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="CK3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="CL3" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="AW3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AX3" s="8" t="s">
+      <c r="CM3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="CN3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="CO3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="CP3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AY3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ3" s="8" t="s">
+      <c r="CQ3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="CR3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="CS3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="CT3" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="BA3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BB3" s="8" t="s">
+      <c r="CU3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="CV3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="CW3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="CX3" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="BC3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BD3" s="8" t="s">
+      <c r="CY3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="CZ3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="DA3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="DB3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="BE3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BF3" s="8" t="s">
+      <c r="DC3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="DD3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="DE3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="DF3" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="BG3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BH3" s="8" t="s">
+      <c r="DG3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="DH3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="DI3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="DJ3" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="BI3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BJ3" s="8" t="s">
+      <c r="DK3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="DM3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="DN3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="BK3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BL3" s="8" t="s">
+      <c r="DO3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="DP3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="DQ3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="DR3" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="BM3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BN3" s="8" t="s">
+      <c r="DS3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="DT3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="DU3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="DV3" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="BO3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BP3" s="8" t="s">
+      <c r="DW3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="DX3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="DY3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="DZ3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="BQ3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BR3" s="8" t="s">
+      <c r="EA3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="EB3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="EC3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="ED3" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="BS3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BT3" s="8" t="s">
+      <c r="EE3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="EF3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="EG3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="EH3" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="BU3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BV3" s="8" t="s">
+      <c r="EI3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="EJ3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="EK3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="EL3" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="BW3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BX3" s="8" t="s">
+      <c r="EM3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="EN3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="EO3" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="EP3" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="BY3" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:77" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="str">
-        <f ca="1">IF($A$4 = "Специалитет",VLOOKUP(B4,Специалитет_название,2),IF($A$4 = "Бакалавриат",VLOOKUP(B4,Бакалавриат_название,2),IF($A$4 = "Магистратура",VLOOKUP(B4,Магистратура_название,2),IF($A$4 = "ККМТ",VLOOKUP(B4,ККМТ_название,2),IF($A$4 = "ТТД",VLOOKUP(B4,ТТД_название,2),0)))))</f>
-        <v>Прикладная информатика</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="EQ3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="ER3" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="ES3" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:149" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="10" t="str">
+        <f>IF($A$4 = "Специалитет",VLOOKUP(B4,Специалитет_название,2),IF($A$4 = "Бакалавриат",VLOOKUP(B4,Бакалавриат_название,2),IF($A$4 = "Магистратура",VLOOKUP(B4,Магистратура_название,2),IF($A$4 = "ККМТ",VLOOKUP(B4,ККМТ_название,2),IF($A$4 = "ТТД",VLOOKUP(B4,ТТД_название,2),"")))))</f>
+        <v/>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7">
-        <f>SUM(H4,J4)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <f>SUM(I4,K4)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7">
-        <f>SUM(N4,P4)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <f>SUM(O4,Q4)</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7">
-        <f>SUM(T4,V4)</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="7">
-        <f>SUM(U4,W4)</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7">
-        <f>SUM(Z4,AB4)</f>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="7">
-        <f>SUM(AA4,AC4)</f>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7">
-        <f>SUM(AF4,AH4)</f>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="7">
-        <f>SUM(AG4,AI4)</f>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7">
-        <f>SUM(AL4,AN4)</f>
-        <v>0</v>
-      </c>
-      <c r="AK4" s="7">
-        <f>SUM(AM4,AO4)</f>
-        <v>0</v>
-      </c>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="7"/>
-      <c r="AP4" s="7">
-        <f>SUM(AR4,AT4)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="7">
-        <f>SUM(AS4,AU4)</f>
-        <v>0</v>
-      </c>
-      <c r="AR4" s="7"/>
-      <c r="AS4" s="7"/>
-      <c r="AT4" s="7"/>
-      <c r="AU4" s="7"/>
-      <c r="AV4" s="7">
-        <f>SUM(AX4,AZ4)</f>
-        <v>0</v>
-      </c>
-      <c r="AW4" s="7">
-        <f>SUM(AY4,BA4)</f>
-        <v>0</v>
-      </c>
-      <c r="AX4" s="7"/>
-      <c r="AY4" s="7"/>
-      <c r="AZ4" s="7"/>
-      <c r="BA4" s="7"/>
-      <c r="BB4" s="7">
-        <f>SUM(BD4,BF4)</f>
-        <v>0</v>
-      </c>
-      <c r="BC4" s="7">
-        <f>SUM(BE4,BG4)</f>
-        <v>0</v>
-      </c>
-      <c r="BD4" s="7"/>
-      <c r="BE4" s="7"/>
-      <c r="BF4" s="7"/>
-      <c r="BG4" s="7"/>
-      <c r="BH4" s="7">
-        <f>SUM(BJ4,BL4)</f>
-        <v>0</v>
-      </c>
-      <c r="BI4" s="7">
-        <f>SUM(BK4,BM4)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ4" s="7"/>
-      <c r="BK4" s="7"/>
-      <c r="BL4" s="7"/>
-      <c r="BM4" s="7"/>
-      <c r="BN4" s="7">
-        <f>SUM(BP4,BR4)</f>
-        <v>0</v>
-      </c>
-      <c r="BO4" s="7">
-        <f>SUM(BQ4,BS4)</f>
-        <v>0</v>
-      </c>
-      <c r="BP4" s="7"/>
-      <c r="BQ4" s="7"/>
-      <c r="BR4" s="7"/>
-      <c r="BS4" s="7"/>
-      <c r="BT4" s="7">
-        <f>SUM(BV4,BX4)</f>
-        <v>0</v>
-      </c>
-      <c r="BU4" s="7">
-        <f>SUM(BW4,BY4)</f>
-        <v>0</v>
-      </c>
-      <c r="BV4" s="7"/>
-      <c r="BW4" s="7"/>
-      <c r="BX4" s="7"/>
-      <c r="BY4" s="7"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
+        <f>SUM(J4,N4)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <f>SUM(K4,O4)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <f>SUM(L4,P4)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <f>SUM(M4,Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="6">
+        <f>SUM(V4,Z4)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="6">
+        <f>SUM(W4,AA4)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="8">
+        <f>SUM(X4,AB4)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="8">
+        <f>SUM(Y4,AC4)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="6">
+        <f>SUM(AH4,AL4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="6">
+        <f>SUM(AI4,AM4)</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="8">
+        <f>SUM(AJ4,AN4)</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="8">
+        <f>SUM(AK4,AO4)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="6">
+        <f>SUM(AT4,AX4)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="6">
+        <f>SUM(AU4,AY4)</f>
+        <v>0</v>
+      </c>
+      <c r="AR4" s="8">
+        <f>SUM(AV4,AZ4)</f>
+        <v>0</v>
+      </c>
+      <c r="AS4" s="8">
+        <f>SUM(AW4,BA4)</f>
+        <v>0</v>
+      </c>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="6"/>
+      <c r="AY4" s="6"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="6">
+        <f>SUM(BF4,BJ4)</f>
+        <v>0</v>
+      </c>
+      <c r="BC4" s="6">
+        <f>SUM(BG4,BK4)</f>
+        <v>0</v>
+      </c>
+      <c r="BD4" s="8">
+        <f>SUM(BH4,BL4)</f>
+        <v>0</v>
+      </c>
+      <c r="BE4" s="8">
+        <f>SUM(BI4,BM4)</f>
+        <v>0</v>
+      </c>
+      <c r="BF4" s="6"/>
+      <c r="BG4" s="6"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="8"/>
+      <c r="BJ4" s="6"/>
+      <c r="BK4" s="6"/>
+      <c r="BL4" s="8"/>
+      <c r="BM4" s="8"/>
+      <c r="BN4" s="6">
+        <f>SUM(BR4,BV4)</f>
+        <v>0</v>
+      </c>
+      <c r="BO4" s="6">
+        <f>SUM(BS4,BW4)</f>
+        <v>0</v>
+      </c>
+      <c r="BP4" s="8">
+        <f>SUM(BT4,BX4)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="8">
+        <f>SUM(BU4,BY4)</f>
+        <v>0</v>
+      </c>
+      <c r="BR4" s="6"/>
+      <c r="BS4" s="6"/>
+      <c r="BT4" s="8"/>
+      <c r="BU4" s="8"/>
+      <c r="BV4" s="6"/>
+      <c r="BW4" s="6"/>
+      <c r="BX4" s="8"/>
+      <c r="BY4" s="8"/>
+      <c r="BZ4" s="6">
+        <f>SUM(CD4,CH4)</f>
+        <v>0</v>
+      </c>
+      <c r="CA4" s="6">
+        <f>SUM(CE4,CI4)</f>
+        <v>0</v>
+      </c>
+      <c r="CB4" s="8">
+        <f>SUM(CF4,CJ4)</f>
+        <v>0</v>
+      </c>
+      <c r="CC4" s="8">
+        <f>SUM(CG4,CK4)</f>
+        <v>0</v>
+      </c>
+      <c r="CD4" s="6"/>
+      <c r="CE4" s="6"/>
+      <c r="CF4" s="8"/>
+      <c r="CG4" s="8"/>
+      <c r="CH4" s="6"/>
+      <c r="CI4" s="6"/>
+      <c r="CJ4" s="8"/>
+      <c r="CK4" s="8"/>
+      <c r="CL4" s="6">
+        <f>SUM(CP4,CT4)</f>
+        <v>0</v>
+      </c>
+      <c r="CM4" s="6">
+        <f>SUM(CQ4,CU4)</f>
+        <v>0</v>
+      </c>
+      <c r="CN4" s="8">
+        <f>SUM(CR4,CV4)</f>
+        <v>0</v>
+      </c>
+      <c r="CO4" s="8">
+        <f>SUM(CS4,CW4)</f>
+        <v>0</v>
+      </c>
+      <c r="CP4" s="6"/>
+      <c r="CQ4" s="6"/>
+      <c r="CR4" s="8"/>
+      <c r="CS4" s="8"/>
+      <c r="CT4" s="6"/>
+      <c r="CU4" s="6"/>
+      <c r="CV4" s="8"/>
+      <c r="CW4" s="8"/>
+      <c r="CX4" s="6">
+        <f>SUM(DB4,DF4)</f>
+        <v>0</v>
+      </c>
+      <c r="CY4" s="6">
+        <f>SUM(DC4,DG4)</f>
+        <v>0</v>
+      </c>
+      <c r="CZ4" s="8">
+        <f>SUM(DD4,DH4)</f>
+        <v>0</v>
+      </c>
+      <c r="DA4" s="8">
+        <f>SUM(DE4,DI4)</f>
+        <v>0</v>
+      </c>
+      <c r="DB4" s="6"/>
+      <c r="DC4" s="6"/>
+      <c r="DD4" s="8"/>
+      <c r="DE4" s="8"/>
+      <c r="DF4" s="6"/>
+      <c r="DG4" s="6"/>
+      <c r="DH4" s="8"/>
+      <c r="DI4" s="8"/>
+      <c r="DJ4" s="6">
+        <f>SUM(DN4,DR4)</f>
+        <v>0</v>
+      </c>
+      <c r="DK4" s="6">
+        <f>SUM(DO4,DS4)</f>
+        <v>0</v>
+      </c>
+      <c r="DL4" s="8">
+        <f>SUM(DP4,DT4)</f>
+        <v>0</v>
+      </c>
+      <c r="DM4" s="8">
+        <f>SUM(DQ4,DU4)</f>
+        <v>0</v>
+      </c>
+      <c r="DN4" s="6"/>
+      <c r="DO4" s="6"/>
+      <c r="DP4" s="8"/>
+      <c r="DQ4" s="8"/>
+      <c r="DR4" s="6"/>
+      <c r="DS4" s="6"/>
+      <c r="DT4" s="8"/>
+      <c r="DU4" s="8"/>
+      <c r="DV4" s="6">
+        <f>SUM(DZ4,ED4)</f>
+        <v>0</v>
+      </c>
+      <c r="DW4" s="6">
+        <f>SUM(EA4,EE4)</f>
+        <v>0</v>
+      </c>
+      <c r="DX4" s="8">
+        <f>SUM(EB4,EF4)</f>
+        <v>0</v>
+      </c>
+      <c r="DY4" s="8">
+        <f>SUM(EC4,EG4)</f>
+        <v>0</v>
+      </c>
+      <c r="DZ4" s="6"/>
+      <c r="EA4" s="6"/>
+      <c r="EB4" s="8"/>
+      <c r="EC4" s="8"/>
+      <c r="ED4" s="6"/>
+      <c r="EE4" s="6"/>
+      <c r="EF4" s="8"/>
+      <c r="EG4" s="8"/>
+      <c r="EH4" s="6">
+        <f>SUM(EL4,EP4)</f>
+        <v>0</v>
+      </c>
+      <c r="EI4" s="6">
+        <f>SUM(EM4,EQ4)</f>
+        <v>0</v>
+      </c>
+      <c r="EJ4" s="8">
+        <f>SUM(EN4,ER4)</f>
+        <v>0</v>
+      </c>
+      <c r="EK4" s="8">
+        <f>SUM(EO4,ES4)</f>
+        <v>0</v>
+      </c>
+      <c r="EL4" s="6"/>
+      <c r="EM4" s="6"/>
+      <c r="EN4" s="8"/>
+      <c r="EO4" s="8"/>
+      <c r="EP4" s="6"/>
+      <c r="EQ4" s="6"/>
+      <c r="ER4" s="8"/>
+      <c r="ES4" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="BN1:BY1"/>
-    <mergeCell ref="BN2:BS2"/>
-    <mergeCell ref="BT2:BY2"/>
-    <mergeCell ref="AP1:BA1"/>
-    <mergeCell ref="AP2:AU2"/>
-    <mergeCell ref="AV2:BA2"/>
-    <mergeCell ref="BB1:BM1"/>
-    <mergeCell ref="BB2:BG2"/>
-    <mergeCell ref="BH2:BM2"/>
-    <mergeCell ref="R1:AC1"/>
-    <mergeCell ref="R2:W2"/>
-    <mergeCell ref="X2:AC2"/>
-    <mergeCell ref="AD1:AO1"/>
-    <mergeCell ref="AD2:AI2"/>
-    <mergeCell ref="AJ2:AO2"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="F1:Q1"/>
+    <mergeCell ref="BB1:BY1"/>
+    <mergeCell ref="BB2:BM2"/>
+    <mergeCell ref="BN2:BY2"/>
+    <mergeCell ref="F2:Q2"/>
+    <mergeCell ref="F1:AC1"/>
+    <mergeCell ref="R2:AC2"/>
+    <mergeCell ref="AD1:BA1"/>
+    <mergeCell ref="AD2:AO2"/>
+    <mergeCell ref="AP2:BA2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="DV1:ES1"/>
+    <mergeCell ref="DV2:EG2"/>
+    <mergeCell ref="EH2:ES2"/>
+    <mergeCell ref="BZ1:CW1"/>
+    <mergeCell ref="BZ2:CK2"/>
+    <mergeCell ref="CL2:CW2"/>
+    <mergeCell ref="CX1:DU1"/>
+    <mergeCell ref="CX2:DI2"/>
+    <mergeCell ref="DJ2:DU2"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
@@ -1507,706 +2091,1278 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BY4"/>
+  <dimension ref="A1:ES4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.88671875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="33.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="33.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="33.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="33.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="26.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="33.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="33.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="7.33203125" style="5" customWidth="1"/>
-    <col min="49" max="49" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="33.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="33.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="33.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="33.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="22.88671875" style="5" customWidth="1"/>
+    <col min="72" max="72" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="33.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="78" max="16384" width="8.88671875" style="5"/>
+    <col min="76" max="76" width="26.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="8.88671875" style="5"/>
+    <col min="79" max="79" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="15.77734375" style="5" customWidth="1"/>
+    <col min="86" max="86" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="8.88671875" style="5"/>
+    <col min="91" max="91" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="8.88671875" style="5"/>
+    <col min="103" max="103" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="8.88671875" style="5"/>
+    <col min="115" max="115" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="15.77734375" style="5" customWidth="1"/>
+    <col min="118" max="118" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="8.88671875" style="5"/>
+    <col min="127" max="127" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="8.88671875" style="5"/>
+    <col min="139" max="139" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="150" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:149" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9" t="s">
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="11"/>
+      <c r="AY1" s="11"/>
+      <c r="AZ1" s="11"/>
+      <c r="BA1" s="11"/>
+      <c r="BB1" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9" t="s">
+      <c r="BC1" s="11"/>
+      <c r="BD1" s="11"/>
+      <c r="BE1" s="11"/>
+      <c r="BF1" s="11"/>
+      <c r="BG1" s="11"/>
+      <c r="BH1" s="11"/>
+      <c r="BI1" s="11"/>
+      <c r="BJ1" s="11"/>
+      <c r="BK1" s="11"/>
+      <c r="BL1" s="11"/>
+      <c r="BM1" s="11"/>
+      <c r="BN1" s="11"/>
+      <c r="BO1" s="11"/>
+      <c r="BP1" s="11"/>
+      <c r="BQ1" s="11"/>
+      <c r="BR1" s="11"/>
+      <c r="BS1" s="11"/>
+      <c r="BT1" s="11"/>
+      <c r="BU1" s="11"/>
+      <c r="BV1" s="11"/>
+      <c r="BW1" s="11"/>
+      <c r="BX1" s="11"/>
+      <c r="BY1" s="11"/>
+      <c r="BZ1" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="AQ1" s="9"/>
-      <c r="AR1" s="9"/>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="9"/>
-      <c r="AU1" s="9"/>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
-      <c r="AY1" s="9"/>
-      <c r="AZ1" s="9"/>
-      <c r="BA1" s="9"/>
-      <c r="BB1" s="9" t="s">
+      <c r="CA1" s="11"/>
+      <c r="CB1" s="11"/>
+      <c r="CC1" s="11"/>
+      <c r="CD1" s="11"/>
+      <c r="CE1" s="11"/>
+      <c r="CF1" s="11"/>
+      <c r="CG1" s="11"/>
+      <c r="CH1" s="11"/>
+      <c r="CI1" s="11"/>
+      <c r="CJ1" s="11"/>
+      <c r="CK1" s="11"/>
+      <c r="CL1" s="11"/>
+      <c r="CM1" s="11"/>
+      <c r="CN1" s="11"/>
+      <c r="CO1" s="11"/>
+      <c r="CP1" s="11"/>
+      <c r="CQ1" s="11"/>
+      <c r="CR1" s="11"/>
+      <c r="CS1" s="11"/>
+      <c r="CT1" s="11"/>
+      <c r="CU1" s="11"/>
+      <c r="CV1" s="11"/>
+      <c r="CW1" s="11"/>
+      <c r="CX1" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="BC1" s="9"/>
-      <c r="BD1" s="9"/>
-      <c r="BE1" s="9"/>
-      <c r="BF1" s="9"/>
-      <c r="BG1" s="9"/>
-      <c r="BH1" s="9"/>
-      <c r="BI1" s="9"/>
-      <c r="BJ1" s="9"/>
-      <c r="BK1" s="9"/>
-      <c r="BL1" s="9"/>
-      <c r="BM1" s="9"/>
-      <c r="BN1" s="9" t="s">
+      <c r="CY1" s="11"/>
+      <c r="CZ1" s="11"/>
+      <c r="DA1" s="11"/>
+      <c r="DB1" s="11"/>
+      <c r="DC1" s="11"/>
+      <c r="DD1" s="11"/>
+      <c r="DE1" s="11"/>
+      <c r="DF1" s="11"/>
+      <c r="DG1" s="11"/>
+      <c r="DH1" s="11"/>
+      <c r="DI1" s="11"/>
+      <c r="DJ1" s="11"/>
+      <c r="DK1" s="11"/>
+      <c r="DL1" s="11"/>
+      <c r="DM1" s="11"/>
+      <c r="DN1" s="11"/>
+      <c r="DO1" s="11"/>
+      <c r="DP1" s="11"/>
+      <c r="DQ1" s="11"/>
+      <c r="DR1" s="11"/>
+      <c r="DS1" s="11"/>
+      <c r="DT1" s="11"/>
+      <c r="DU1" s="11"/>
+      <c r="DV1" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="BO1" s="9"/>
-      <c r="BP1" s="9"/>
-      <c r="BQ1" s="9"/>
-      <c r="BR1" s="9"/>
-      <c r="BS1" s="9"/>
-      <c r="BT1" s="9"/>
-      <c r="BU1" s="9"/>
-      <c r="BV1" s="9"/>
-      <c r="BW1" s="9"/>
-      <c r="BX1" s="9"/>
-      <c r="BY1" s="9"/>
-    </row>
-    <row r="2" spans="1:77" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="9" t="s">
+      <c r="DW1" s="11"/>
+      <c r="DX1" s="11"/>
+      <c r="DY1" s="11"/>
+      <c r="DZ1" s="11"/>
+      <c r="EA1" s="11"/>
+      <c r="EB1" s="11"/>
+      <c r="EC1" s="11"/>
+      <c r="ED1" s="11"/>
+      <c r="EE1" s="11"/>
+      <c r="EF1" s="11"/>
+      <c r="EG1" s="11"/>
+      <c r="EH1" s="11"/>
+      <c r="EI1" s="11"/>
+      <c r="EJ1" s="11"/>
+      <c r="EK1" s="11"/>
+      <c r="EL1" s="11"/>
+      <c r="EM1" s="11"/>
+      <c r="EN1" s="11"/>
+      <c r="EO1" s="11"/>
+      <c r="EP1" s="11"/>
+      <c r="EQ1" s="11"/>
+      <c r="ER1" s="11"/>
+      <c r="ES1" s="11"/>
+    </row>
+    <row r="2" spans="1:149" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9" t="s">
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9" t="s">
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="11"/>
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11"/>
+      <c r="AY2" s="11"/>
+      <c r="AZ2" s="11"/>
+      <c r="BA2" s="11"/>
+      <c r="BB2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9" t="s">
+      <c r="BC2" s="11"/>
+      <c r="BD2" s="11"/>
+      <c r="BE2" s="11"/>
+      <c r="BF2" s="11"/>
+      <c r="BG2" s="11"/>
+      <c r="BH2" s="11"/>
+      <c r="BI2" s="11"/>
+      <c r="BJ2" s="11"/>
+      <c r="BK2" s="11"/>
+      <c r="BL2" s="11"/>
+      <c r="BM2" s="11"/>
+      <c r="BN2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="9" t="s">
+      <c r="BO2" s="11"/>
+      <c r="BP2" s="11"/>
+      <c r="BQ2" s="11"/>
+      <c r="BR2" s="11"/>
+      <c r="BS2" s="11"/>
+      <c r="BT2" s="11"/>
+      <c r="BU2" s="11"/>
+      <c r="BV2" s="11"/>
+      <c r="BW2" s="11"/>
+      <c r="BX2" s="11"/>
+      <c r="BY2" s="11"/>
+      <c r="BZ2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="9"/>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="9"/>
-      <c r="AV2" s="9" t="s">
+      <c r="CA2" s="11"/>
+      <c r="CB2" s="11"/>
+      <c r="CC2" s="11"/>
+      <c r="CD2" s="11"/>
+      <c r="CE2" s="11"/>
+      <c r="CF2" s="11"/>
+      <c r="CG2" s="11"/>
+      <c r="CH2" s="11"/>
+      <c r="CI2" s="11"/>
+      <c r="CJ2" s="11"/>
+      <c r="CK2" s="11"/>
+      <c r="CL2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="AW2" s="9"/>
-      <c r="AX2" s="9"/>
-      <c r="AY2" s="9"/>
-      <c r="AZ2" s="9"/>
-      <c r="BA2" s="9"/>
-      <c r="BB2" s="9" t="s">
+      <c r="CM2" s="11"/>
+      <c r="CN2" s="11"/>
+      <c r="CO2" s="11"/>
+      <c r="CP2" s="11"/>
+      <c r="CQ2" s="11"/>
+      <c r="CR2" s="11"/>
+      <c r="CS2" s="11"/>
+      <c r="CT2" s="11"/>
+      <c r="CU2" s="11"/>
+      <c r="CV2" s="11"/>
+      <c r="CW2" s="11"/>
+      <c r="CX2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="BC2" s="9"/>
-      <c r="BD2" s="9"/>
-      <c r="BE2" s="9"/>
-      <c r="BF2" s="9"/>
-      <c r="BG2" s="9"/>
-      <c r="BH2" s="9" t="s">
+      <c r="CY2" s="11"/>
+      <c r="CZ2" s="11"/>
+      <c r="DA2" s="11"/>
+      <c r="DB2" s="11"/>
+      <c r="DC2" s="11"/>
+      <c r="DD2" s="11"/>
+      <c r="DE2" s="11"/>
+      <c r="DF2" s="11"/>
+      <c r="DG2" s="11"/>
+      <c r="DH2" s="11"/>
+      <c r="DI2" s="11"/>
+      <c r="DJ2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="BI2" s="9"/>
-      <c r="BJ2" s="9"/>
-      <c r="BK2" s="9"/>
-      <c r="BL2" s="9"/>
-      <c r="BM2" s="9"/>
-      <c r="BN2" s="9" t="s">
+      <c r="DK2" s="11"/>
+      <c r="DL2" s="11"/>
+      <c r="DM2" s="11"/>
+      <c r="DN2" s="11"/>
+      <c r="DO2" s="11"/>
+      <c r="DP2" s="11"/>
+      <c r="DQ2" s="11"/>
+      <c r="DR2" s="11"/>
+      <c r="DS2" s="11"/>
+      <c r="DT2" s="11"/>
+      <c r="DU2" s="11"/>
+      <c r="DV2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="BO2" s="9"/>
-      <c r="BP2" s="9"/>
-      <c r="BQ2" s="9"/>
-      <c r="BR2" s="9"/>
-      <c r="BS2" s="9"/>
-      <c r="BT2" s="9" t="s">
+      <c r="DW2" s="11"/>
+      <c r="DX2" s="11"/>
+      <c r="DY2" s="11"/>
+      <c r="DZ2" s="11"/>
+      <c r="EA2" s="11"/>
+      <c r="EB2" s="11"/>
+      <c r="EC2" s="11"/>
+      <c r="ED2" s="11"/>
+      <c r="EE2" s="11"/>
+      <c r="EF2" s="11"/>
+      <c r="EG2" s="11"/>
+      <c r="EH2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="BU2" s="9"/>
-      <c r="BV2" s="9"/>
-      <c r="BW2" s="9"/>
-      <c r="BX2" s="9"/>
-      <c r="BY2" s="9"/>
-    </row>
-    <row r="3" spans="1:77" ht="198" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="8" t="s">
+      <c r="EI2" s="11"/>
+      <c r="EJ2" s="11"/>
+      <c r="EK2" s="11"/>
+      <c r="EL2" s="11"/>
+      <c r="EM2" s="11"/>
+      <c r="EN2" s="11"/>
+      <c r="EO2" s="11"/>
+      <c r="EP2" s="11"/>
+      <c r="EQ2" s="11"/>
+      <c r="ER2" s="11"/>
+      <c r="ES2" s="11"/>
+    </row>
+    <row r="3" spans="1:149" ht="54" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="L3" s="8" t="s">
+      <c r="O3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="R3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="N3" s="8" t="s">
+      <c r="S3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="V3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="O3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="P3" s="8" t="s">
+      <c r="W3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="Q3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="R3" s="8" t="s">
+      <c r="AA3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="S3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="T3" s="8" t="s">
+      <c r="AE3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="U3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="V3" s="8" t="s">
+      <c r="AI3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="W3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="X3" s="8" t="s">
+      <c r="AM3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="Y3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z3" s="8" t="s">
+      <c r="AQ3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="AA3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AU3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AV3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="AC3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD3" s="8" t="s">
+      <c r="AY3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BA3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="AE3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF3" s="8" t="s">
+      <c r="BC3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="AG3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH3" s="8" t="s">
+      <c r="BG3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BH3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="AI3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ3" s="8" t="s">
+      <c r="BK3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BL3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BN3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="AK3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL3" s="8" t="s">
+      <c r="BO3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BP3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BQ3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="AM3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN3" s="8" t="s">
+      <c r="BS3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BT3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BV3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="AO3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP3" s="8" t="s">
+      <c r="BW3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BX3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BZ3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="AQ3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR3" s="8" t="s">
+      <c r="CA3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="CB3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="CC3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="CD3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="AS3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT3" s="8" t="s">
+      <c r="CE3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="CF3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="CG3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="CH3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="AU3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AV3" s="8" t="s">
+      <c r="CI3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="CJ3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="CK3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="CL3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="AW3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AX3" s="8" t="s">
+      <c r="CM3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="CN3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="CO3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="CP3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="AY3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ3" s="8" t="s">
+      <c r="CQ3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="CR3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="CS3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="CT3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="BA3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BB3" s="8" t="s">
+      <c r="CU3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="CV3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="CW3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="CX3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="BC3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BD3" s="8" t="s">
+      <c r="CY3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="CZ3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="DA3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="DB3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="BE3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BF3" s="8" t="s">
+      <c r="DC3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="DD3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="DE3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="DF3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="BG3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BH3" s="8" t="s">
+      <c r="DG3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="DH3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="DI3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="DJ3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="BI3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BJ3" s="8" t="s">
+      <c r="DK3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="DM3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="DN3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="BK3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BL3" s="8" t="s">
+      <c r="DO3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="DP3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="DQ3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="DR3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="BM3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BN3" s="8" t="s">
+      <c r="DS3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="DT3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="DU3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="DV3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="BO3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BP3" s="8" t="s">
+      <c r="DW3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="DX3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="DY3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="DZ3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="BQ3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BR3" s="8" t="s">
+      <c r="EA3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="EB3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="EC3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="ED3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="BS3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BT3" s="8" t="s">
+      <c r="EE3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="EF3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="EG3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="EH3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="BU3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BV3" s="8" t="s">
+      <c r="EI3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="EJ3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="EK3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="EL3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="BW3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BX3" s="8" t="s">
+      <c r="EM3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="EN3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="EO3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="EP3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="BY3" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:77" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="str">
-        <f ca="1">IF($A$4 = "Специалитет",VLOOKUP(B4,Специалитет_название,2),IF($A$4 = "Бакалавриат",VLOOKUP(B4,Бакалавриат_название,2),IF($A$4 = "Магистратура",VLOOKUP(B4,Магистратура_название,2),IF($A$4 = "ККМТ",VLOOKUP(B4,ККМТ_название,2),IF($A$4 = "ТТД",VLOOKUP(B4,ТТД_название,2),0)))))</f>
-        <v>Прикладная информатика</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7">
-        <f>SUM(H4,J4)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <f>SUM(I4,K4)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7">
-        <f>SUM(N4,P4)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <f>SUM(O4,Q4)</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7">
-        <f>SUM(T4,V4)</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="7">
-        <f>SUM(U4,W4)</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7">
-        <f>SUM(Z4,AB4)</f>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="7">
-        <f>SUM(AA4,AC4)</f>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7">
-        <f>SUM(AF4,AH4)</f>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="7">
-        <f>SUM(AG4,AI4)</f>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7">
-        <f>SUM(AL4,AN4)</f>
-        <v>0</v>
-      </c>
-      <c r="AK4" s="7">
-        <f>SUM(AM4,AO4)</f>
-        <v>0</v>
-      </c>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="7"/>
-      <c r="AP4" s="7">
-        <f>SUM(AR4,AT4)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="7">
-        <f>SUM(AS4,AU4)</f>
-        <v>0</v>
-      </c>
-      <c r="AR4" s="7"/>
-      <c r="AS4" s="7"/>
-      <c r="AT4" s="7"/>
-      <c r="AU4" s="7"/>
-      <c r="AV4" s="7">
-        <f>SUM(AX4,AZ4)</f>
-        <v>0</v>
-      </c>
-      <c r="AW4" s="7">
-        <f>SUM(AY4,BA4)</f>
-        <v>0</v>
-      </c>
-      <c r="AX4" s="7"/>
-      <c r="AY4" s="7"/>
-      <c r="AZ4" s="7"/>
-      <c r="BA4" s="7"/>
-      <c r="BB4" s="7">
-        <f>SUM(BD4,BF4)</f>
-        <v>0</v>
-      </c>
-      <c r="BC4" s="7">
-        <f>SUM(BE4,BG4)</f>
-        <v>0</v>
-      </c>
-      <c r="BD4" s="7"/>
-      <c r="BE4" s="7"/>
-      <c r="BF4" s="7"/>
-      <c r="BG4" s="7"/>
-      <c r="BH4" s="7">
-        <f>SUM(BJ4,BL4)</f>
-        <v>0</v>
-      </c>
-      <c r="BI4" s="7">
-        <f>SUM(BK4,BM4)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ4" s="7"/>
-      <c r="BK4" s="7"/>
-      <c r="BL4" s="7"/>
-      <c r="BM4" s="7"/>
-      <c r="BN4" s="7">
-        <f>SUM(BP4,BR4)</f>
-        <v>0</v>
-      </c>
-      <c r="BO4" s="7">
-        <f>SUM(BQ4,BS4)</f>
-        <v>0</v>
-      </c>
-      <c r="BP4" s="7"/>
-      <c r="BQ4" s="7"/>
-      <c r="BR4" s="7"/>
-      <c r="BS4" s="7"/>
-      <c r="BT4" s="7">
-        <f>SUM(BV4,BX4)</f>
-        <v>0</v>
-      </c>
-      <c r="BU4" s="7">
-        <f>SUM(BW4,BY4)</f>
-        <v>0</v>
-      </c>
-      <c r="BV4" s="7"/>
-      <c r="BW4" s="7"/>
-      <c r="BX4" s="7"/>
-      <c r="BY4" s="7"/>
+      <c r="EQ3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="ER3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="ES3" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:149" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="str">
+        <f>IF($A$4 = "Специалитет",VLOOKUP(B4,Специалитет_название,2),IF($A$4 = "Бакалавриат",VLOOKUP(B4,Бакалавриат_название,2),IF($A$4 = "Магистратура",VLOOKUP(B4,Магистратура_название,2),IF($A$4 = "ККМТ",VLOOKUP(B4,ККМТ_название,2),IF($A$4 = "ТТД",VLOOKUP(B4,ТТД_название,2),"")))))</f>
+        <v/>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9">
+        <f>SUM(J4,N4)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <f>SUM(K4,O4)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <f>SUM(L4,P4)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <f>SUM(M4,Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="9">
+        <f>SUM(V4,Z4)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="9">
+        <f>SUM(W4,AA4)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="8">
+        <f>SUM(X4,AB4)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="8">
+        <f>SUM(Y4,AC4)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="9">
+        <f>SUM(AH4,AL4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="9">
+        <f>SUM(AI4,AM4)</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="8">
+        <f>SUM(AJ4,AN4)</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="8">
+        <f>SUM(AK4,AO4)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="9">
+        <f>SUM(AT4,AX4)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="9">
+        <f>SUM(AU4,AY4)</f>
+        <v>0</v>
+      </c>
+      <c r="AR4" s="8">
+        <f>SUM(AV4,AZ4)</f>
+        <v>0</v>
+      </c>
+      <c r="AS4" s="8">
+        <f>SUM(AW4,BA4)</f>
+        <v>0</v>
+      </c>
+      <c r="AT4" s="9"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="9">
+        <f>SUM(BF4,BJ4)</f>
+        <v>0</v>
+      </c>
+      <c r="BC4" s="9">
+        <f>SUM(BG4,BK4)</f>
+        <v>0</v>
+      </c>
+      <c r="BD4" s="8">
+        <f>SUM(BH4,BL4)</f>
+        <v>0</v>
+      </c>
+      <c r="BE4" s="8">
+        <f>SUM(BI4,BM4)</f>
+        <v>0</v>
+      </c>
+      <c r="BF4" s="9"/>
+      <c r="BG4" s="9"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="8"/>
+      <c r="BJ4" s="9"/>
+      <c r="BK4" s="9"/>
+      <c r="BL4" s="8"/>
+      <c r="BM4" s="8"/>
+      <c r="BN4" s="9">
+        <f>SUM(BR4,BV4)</f>
+        <v>0</v>
+      </c>
+      <c r="BO4" s="9">
+        <f>SUM(BS4,BW4)</f>
+        <v>0</v>
+      </c>
+      <c r="BP4" s="8">
+        <f>SUM(BT4,BX4)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="8">
+        <f>SUM(BU4,BY4)</f>
+        <v>0</v>
+      </c>
+      <c r="BR4" s="9"/>
+      <c r="BS4" s="9"/>
+      <c r="BT4" s="8"/>
+      <c r="BU4" s="8"/>
+      <c r="BV4" s="9"/>
+      <c r="BW4" s="9"/>
+      <c r="BX4" s="8"/>
+      <c r="BY4" s="8"/>
+      <c r="BZ4" s="9">
+        <f>SUM(CD4,CH4)</f>
+        <v>0</v>
+      </c>
+      <c r="CA4" s="9">
+        <f>SUM(CE4,CI4)</f>
+        <v>0</v>
+      </c>
+      <c r="CB4" s="8">
+        <f>SUM(CF4,CJ4)</f>
+        <v>0</v>
+      </c>
+      <c r="CC4" s="8">
+        <f>SUM(CG4,CK4)</f>
+        <v>0</v>
+      </c>
+      <c r="CD4" s="9"/>
+      <c r="CE4" s="9"/>
+      <c r="CF4" s="8"/>
+      <c r="CG4" s="8"/>
+      <c r="CH4" s="9"/>
+      <c r="CI4" s="9"/>
+      <c r="CJ4" s="8"/>
+      <c r="CK4" s="8"/>
+      <c r="CL4" s="9">
+        <f>SUM(CP4,CT4)</f>
+        <v>0</v>
+      </c>
+      <c r="CM4" s="9">
+        <f>SUM(CQ4,CU4)</f>
+        <v>0</v>
+      </c>
+      <c r="CN4" s="8">
+        <f>SUM(CR4,CV4)</f>
+        <v>0</v>
+      </c>
+      <c r="CO4" s="8">
+        <f>SUM(CS4,CW4)</f>
+        <v>0</v>
+      </c>
+      <c r="CP4" s="9"/>
+      <c r="CQ4" s="9"/>
+      <c r="CR4" s="8"/>
+      <c r="CS4" s="8"/>
+      <c r="CT4" s="9"/>
+      <c r="CU4" s="9"/>
+      <c r="CV4" s="8"/>
+      <c r="CW4" s="8"/>
+      <c r="CX4" s="9">
+        <f>SUM(DB4,DF4)</f>
+        <v>0</v>
+      </c>
+      <c r="CY4" s="9">
+        <f>SUM(DC4,DG4)</f>
+        <v>0</v>
+      </c>
+      <c r="CZ4" s="8">
+        <f>SUM(DD4,DH4)</f>
+        <v>0</v>
+      </c>
+      <c r="DA4" s="8">
+        <f>SUM(DE4,DI4)</f>
+        <v>0</v>
+      </c>
+      <c r="DB4" s="9"/>
+      <c r="DC4" s="9"/>
+      <c r="DD4" s="8"/>
+      <c r="DE4" s="8"/>
+      <c r="DF4" s="9"/>
+      <c r="DG4" s="9"/>
+      <c r="DH4" s="8"/>
+      <c r="DI4" s="8"/>
+      <c r="DJ4" s="9">
+        <f>SUM(DN4,DR4)</f>
+        <v>0</v>
+      </c>
+      <c r="DK4" s="9">
+        <f>SUM(DO4,DS4)</f>
+        <v>0</v>
+      </c>
+      <c r="DL4" s="8">
+        <f>SUM(DP4,DT4)</f>
+        <v>0</v>
+      </c>
+      <c r="DM4" s="8">
+        <f>SUM(DQ4,DU4)</f>
+        <v>0</v>
+      </c>
+      <c r="DN4" s="9"/>
+      <c r="DO4" s="9"/>
+      <c r="DP4" s="8"/>
+      <c r="DQ4" s="8"/>
+      <c r="DR4" s="9"/>
+      <c r="DS4" s="9"/>
+      <c r="DT4" s="8"/>
+      <c r="DU4" s="8"/>
+      <c r="DV4" s="9">
+        <f>SUM(DZ4,ED4)</f>
+        <v>0</v>
+      </c>
+      <c r="DW4" s="9">
+        <f>SUM(EA4,EE4)</f>
+        <v>0</v>
+      </c>
+      <c r="DX4" s="8">
+        <f>SUM(EB4,EF4)</f>
+        <v>0</v>
+      </c>
+      <c r="DY4" s="8">
+        <f>SUM(EC4,EG4)</f>
+        <v>0</v>
+      </c>
+      <c r="DZ4" s="9"/>
+      <c r="EA4" s="9"/>
+      <c r="EB4" s="8"/>
+      <c r="EC4" s="8"/>
+      <c r="ED4" s="9"/>
+      <c r="EE4" s="9"/>
+      <c r="EF4" s="8"/>
+      <c r="EG4" s="8"/>
+      <c r="EH4" s="9">
+        <f>SUM(EL4,EP4)</f>
+        <v>0</v>
+      </c>
+      <c r="EI4" s="9">
+        <f>SUM(EM4,EQ4)</f>
+        <v>0</v>
+      </c>
+      <c r="EJ4" s="8">
+        <f>SUM(EN4,ER4)</f>
+        <v>0</v>
+      </c>
+      <c r="EK4" s="8">
+        <f>SUM(EO4,ES4)</f>
+        <v>0</v>
+      </c>
+      <c r="EL4" s="9"/>
+      <c r="EM4" s="9"/>
+      <c r="EN4" s="8"/>
+      <c r="EO4" s="8"/>
+      <c r="EP4" s="9"/>
+      <c r="EQ4" s="9"/>
+      <c r="ER4" s="8"/>
+      <c r="ES4" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="BT2:BY2"/>
-    <mergeCell ref="AJ2:AO2"/>
-    <mergeCell ref="AP2:AU2"/>
-    <mergeCell ref="AV2:BA2"/>
-    <mergeCell ref="BB2:BG2"/>
-    <mergeCell ref="BH2:BM2"/>
-    <mergeCell ref="BN2:BS2"/>
-    <mergeCell ref="R1:AC1"/>
-    <mergeCell ref="AD1:AO1"/>
-    <mergeCell ref="AP1:BA1"/>
-    <mergeCell ref="BB1:BM1"/>
-    <mergeCell ref="BN1:BY1"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="R2:W2"/>
-    <mergeCell ref="X2:AC2"/>
-    <mergeCell ref="AD2:AI2"/>
+    <mergeCell ref="EH2:ES2"/>
+    <mergeCell ref="BN2:BY2"/>
+    <mergeCell ref="BZ2:CK2"/>
+    <mergeCell ref="CL2:CW2"/>
+    <mergeCell ref="CX2:DI2"/>
+    <mergeCell ref="DJ2:DU2"/>
+    <mergeCell ref="DV2:EG2"/>
+    <mergeCell ref="AD1:BA1"/>
+    <mergeCell ref="BB1:BY1"/>
+    <mergeCell ref="BZ1:CW1"/>
+    <mergeCell ref="CX1:DU1"/>
+    <mergeCell ref="DV1:ES1"/>
+    <mergeCell ref="F2:Q2"/>
+    <mergeCell ref="R2:AC2"/>
+    <mergeCell ref="AD2:AO2"/>
+    <mergeCell ref="AP2:BA2"/>
+    <mergeCell ref="BB2:BM2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:Q1"/>
+    <mergeCell ref="F1:AC1"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4">
@@ -2223,706 +3379,1278 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BY4"/>
+  <dimension ref="A1:ES4"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.88671875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="33.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="33.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="33.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="33.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="26.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="33.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="33.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="7.33203125" style="5" customWidth="1"/>
-    <col min="49" max="49" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="33.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="33.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="33.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="33.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="28.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="22.88671875" style="5" customWidth="1"/>
+    <col min="72" max="72" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="33.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="22.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="78" max="16384" width="8.88671875" style="5"/>
+    <col min="76" max="76" width="26.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="8.88671875" style="5"/>
+    <col min="79" max="79" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="15.77734375" style="5" customWidth="1"/>
+    <col min="86" max="86" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="8.88671875" style="5"/>
+    <col min="91" max="91" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="8.88671875" style="5"/>
+    <col min="103" max="103" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="8.88671875" style="5"/>
+    <col min="115" max="115" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="15.77734375" style="5" customWidth="1"/>
+    <col min="118" max="118" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="8.88671875" style="5"/>
+    <col min="127" max="127" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="8.88671875" style="5"/>
+    <col min="139" max="139" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="27.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="30.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="22" style="5" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="20.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="15.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="150" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:149" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9" t="s">
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
+      <c r="AL1" s="11"/>
+      <c r="AM1" s="11"/>
+      <c r="AN1" s="11"/>
+      <c r="AO1" s="11"/>
+      <c r="AP1" s="11"/>
+      <c r="AQ1" s="11"/>
+      <c r="AR1" s="11"/>
+      <c r="AS1" s="11"/>
+      <c r="AT1" s="11"/>
+      <c r="AU1" s="11"/>
+      <c r="AV1" s="11"/>
+      <c r="AW1" s="11"/>
+      <c r="AX1" s="11"/>
+      <c r="AY1" s="11"/>
+      <c r="AZ1" s="11"/>
+      <c r="BA1" s="11"/>
+      <c r="BB1" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9" t="s">
+      <c r="BC1" s="11"/>
+      <c r="BD1" s="11"/>
+      <c r="BE1" s="11"/>
+      <c r="BF1" s="11"/>
+      <c r="BG1" s="11"/>
+      <c r="BH1" s="11"/>
+      <c r="BI1" s="11"/>
+      <c r="BJ1" s="11"/>
+      <c r="BK1" s="11"/>
+      <c r="BL1" s="11"/>
+      <c r="BM1" s="11"/>
+      <c r="BN1" s="11"/>
+      <c r="BO1" s="11"/>
+      <c r="BP1" s="11"/>
+      <c r="BQ1" s="11"/>
+      <c r="BR1" s="11"/>
+      <c r="BS1" s="11"/>
+      <c r="BT1" s="11"/>
+      <c r="BU1" s="11"/>
+      <c r="BV1" s="11"/>
+      <c r="BW1" s="11"/>
+      <c r="BX1" s="11"/>
+      <c r="BY1" s="11"/>
+      <c r="BZ1" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="AQ1" s="9"/>
-      <c r="AR1" s="9"/>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="9"/>
-      <c r="AU1" s="9"/>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
-      <c r="AY1" s="9"/>
-      <c r="AZ1" s="9"/>
-      <c r="BA1" s="9"/>
-      <c r="BB1" s="9" t="s">
+      <c r="CA1" s="11"/>
+      <c r="CB1" s="11"/>
+      <c r="CC1" s="11"/>
+      <c r="CD1" s="11"/>
+      <c r="CE1" s="11"/>
+      <c r="CF1" s="11"/>
+      <c r="CG1" s="11"/>
+      <c r="CH1" s="11"/>
+      <c r="CI1" s="11"/>
+      <c r="CJ1" s="11"/>
+      <c r="CK1" s="11"/>
+      <c r="CL1" s="11"/>
+      <c r="CM1" s="11"/>
+      <c r="CN1" s="11"/>
+      <c r="CO1" s="11"/>
+      <c r="CP1" s="11"/>
+      <c r="CQ1" s="11"/>
+      <c r="CR1" s="11"/>
+      <c r="CS1" s="11"/>
+      <c r="CT1" s="11"/>
+      <c r="CU1" s="11"/>
+      <c r="CV1" s="11"/>
+      <c r="CW1" s="11"/>
+      <c r="CX1" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="BC1" s="9"/>
-      <c r="BD1" s="9"/>
-      <c r="BE1" s="9"/>
-      <c r="BF1" s="9"/>
-      <c r="BG1" s="9"/>
-      <c r="BH1" s="9"/>
-      <c r="BI1" s="9"/>
-      <c r="BJ1" s="9"/>
-      <c r="BK1" s="9"/>
-      <c r="BL1" s="9"/>
-      <c r="BM1" s="9"/>
-      <c r="BN1" s="9" t="s">
+      <c r="CY1" s="11"/>
+      <c r="CZ1" s="11"/>
+      <c r="DA1" s="11"/>
+      <c r="DB1" s="11"/>
+      <c r="DC1" s="11"/>
+      <c r="DD1" s="11"/>
+      <c r="DE1" s="11"/>
+      <c r="DF1" s="11"/>
+      <c r="DG1" s="11"/>
+      <c r="DH1" s="11"/>
+      <c r="DI1" s="11"/>
+      <c r="DJ1" s="11"/>
+      <c r="DK1" s="11"/>
+      <c r="DL1" s="11"/>
+      <c r="DM1" s="11"/>
+      <c r="DN1" s="11"/>
+      <c r="DO1" s="11"/>
+      <c r="DP1" s="11"/>
+      <c r="DQ1" s="11"/>
+      <c r="DR1" s="11"/>
+      <c r="DS1" s="11"/>
+      <c r="DT1" s="11"/>
+      <c r="DU1" s="11"/>
+      <c r="DV1" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="BO1" s="9"/>
-      <c r="BP1" s="9"/>
-      <c r="BQ1" s="9"/>
-      <c r="BR1" s="9"/>
-      <c r="BS1" s="9"/>
-      <c r="BT1" s="9"/>
-      <c r="BU1" s="9"/>
-      <c r="BV1" s="9"/>
-      <c r="BW1" s="9"/>
-      <c r="BX1" s="9"/>
-      <c r="BY1" s="9"/>
-    </row>
-    <row r="2" spans="1:77" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="9" t="s">
+      <c r="DW1" s="11"/>
+      <c r="DX1" s="11"/>
+      <c r="DY1" s="11"/>
+      <c r="DZ1" s="11"/>
+      <c r="EA1" s="11"/>
+      <c r="EB1" s="11"/>
+      <c r="EC1" s="11"/>
+      <c r="ED1" s="11"/>
+      <c r="EE1" s="11"/>
+      <c r="EF1" s="11"/>
+      <c r="EG1" s="11"/>
+      <c r="EH1" s="11"/>
+      <c r="EI1" s="11"/>
+      <c r="EJ1" s="11"/>
+      <c r="EK1" s="11"/>
+      <c r="EL1" s="11"/>
+      <c r="EM1" s="11"/>
+      <c r="EN1" s="11"/>
+      <c r="EO1" s="11"/>
+      <c r="EP1" s="11"/>
+      <c r="EQ1" s="11"/>
+      <c r="ER1" s="11"/>
+      <c r="ES1" s="11"/>
+    </row>
+    <row r="2" spans="1:149" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9" t="s">
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9" t="s">
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9" t="s">
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="11"/>
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11"/>
+      <c r="AY2" s="11"/>
+      <c r="AZ2" s="11"/>
+      <c r="BA2" s="11"/>
+      <c r="BB2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9" t="s">
+      <c r="BC2" s="11"/>
+      <c r="BD2" s="11"/>
+      <c r="BE2" s="11"/>
+      <c r="BF2" s="11"/>
+      <c r="BG2" s="11"/>
+      <c r="BH2" s="11"/>
+      <c r="BI2" s="11"/>
+      <c r="BJ2" s="11"/>
+      <c r="BK2" s="11"/>
+      <c r="BL2" s="11"/>
+      <c r="BM2" s="11"/>
+      <c r="BN2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="9" t="s">
+      <c r="BO2" s="11"/>
+      <c r="BP2" s="11"/>
+      <c r="BQ2" s="11"/>
+      <c r="BR2" s="11"/>
+      <c r="BS2" s="11"/>
+      <c r="BT2" s="11"/>
+      <c r="BU2" s="11"/>
+      <c r="BV2" s="11"/>
+      <c r="BW2" s="11"/>
+      <c r="BX2" s="11"/>
+      <c r="BY2" s="11"/>
+      <c r="BZ2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="9"/>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="9"/>
-      <c r="AV2" s="9" t="s">
+      <c r="CA2" s="11"/>
+      <c r="CB2" s="11"/>
+      <c r="CC2" s="11"/>
+      <c r="CD2" s="11"/>
+      <c r="CE2" s="11"/>
+      <c r="CF2" s="11"/>
+      <c r="CG2" s="11"/>
+      <c r="CH2" s="11"/>
+      <c r="CI2" s="11"/>
+      <c r="CJ2" s="11"/>
+      <c r="CK2" s="11"/>
+      <c r="CL2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="AW2" s="9"/>
-      <c r="AX2" s="9"/>
-      <c r="AY2" s="9"/>
-      <c r="AZ2" s="9"/>
-      <c r="BA2" s="9"/>
-      <c r="BB2" s="9" t="s">
+      <c r="CM2" s="11"/>
+      <c r="CN2" s="11"/>
+      <c r="CO2" s="11"/>
+      <c r="CP2" s="11"/>
+      <c r="CQ2" s="11"/>
+      <c r="CR2" s="11"/>
+      <c r="CS2" s="11"/>
+      <c r="CT2" s="11"/>
+      <c r="CU2" s="11"/>
+      <c r="CV2" s="11"/>
+      <c r="CW2" s="11"/>
+      <c r="CX2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="BC2" s="9"/>
-      <c r="BD2" s="9"/>
-      <c r="BE2" s="9"/>
-      <c r="BF2" s="9"/>
-      <c r="BG2" s="9"/>
-      <c r="BH2" s="9" t="s">
+      <c r="CY2" s="11"/>
+      <c r="CZ2" s="11"/>
+      <c r="DA2" s="11"/>
+      <c r="DB2" s="11"/>
+      <c r="DC2" s="11"/>
+      <c r="DD2" s="11"/>
+      <c r="DE2" s="11"/>
+      <c r="DF2" s="11"/>
+      <c r="DG2" s="11"/>
+      <c r="DH2" s="11"/>
+      <c r="DI2" s="11"/>
+      <c r="DJ2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="BI2" s="9"/>
-      <c r="BJ2" s="9"/>
-      <c r="BK2" s="9"/>
-      <c r="BL2" s="9"/>
-      <c r="BM2" s="9"/>
-      <c r="BN2" s="9" t="s">
+      <c r="DK2" s="11"/>
+      <c r="DL2" s="11"/>
+      <c r="DM2" s="11"/>
+      <c r="DN2" s="11"/>
+      <c r="DO2" s="11"/>
+      <c r="DP2" s="11"/>
+      <c r="DQ2" s="11"/>
+      <c r="DR2" s="11"/>
+      <c r="DS2" s="11"/>
+      <c r="DT2" s="11"/>
+      <c r="DU2" s="11"/>
+      <c r="DV2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="BO2" s="9"/>
-      <c r="BP2" s="9"/>
-      <c r="BQ2" s="9"/>
-      <c r="BR2" s="9"/>
-      <c r="BS2" s="9"/>
-      <c r="BT2" s="9" t="s">
+      <c r="DW2" s="11"/>
+      <c r="DX2" s="11"/>
+      <c r="DY2" s="11"/>
+      <c r="DZ2" s="11"/>
+      <c r="EA2" s="11"/>
+      <c r="EB2" s="11"/>
+      <c r="EC2" s="11"/>
+      <c r="ED2" s="11"/>
+      <c r="EE2" s="11"/>
+      <c r="EF2" s="11"/>
+      <c r="EG2" s="11"/>
+      <c r="EH2" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="BU2" s="9"/>
-      <c r="BV2" s="9"/>
-      <c r="BW2" s="9"/>
-      <c r="BX2" s="9"/>
-      <c r="BY2" s="9"/>
-    </row>
-    <row r="3" spans="1:77" ht="198" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="8" t="s">
+      <c r="EI2" s="11"/>
+      <c r="EJ2" s="11"/>
+      <c r="EK2" s="11"/>
+      <c r="EL2" s="11"/>
+      <c r="EM2" s="11"/>
+      <c r="EN2" s="11"/>
+      <c r="EO2" s="11"/>
+      <c r="EP2" s="11"/>
+      <c r="EQ2" s="11"/>
+      <c r="ER2" s="11"/>
+      <c r="ES2" s="11"/>
+    </row>
+    <row r="3" spans="1:149" ht="54" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="L3" s="8" t="s">
+      <c r="O3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="R3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="N3" s="8" t="s">
+      <c r="S3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="V3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="O3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="P3" s="8" t="s">
+      <c r="W3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="Q3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="R3" s="8" t="s">
+      <c r="AA3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="S3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="T3" s="8" t="s">
+      <c r="AE3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="U3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="V3" s="8" t="s">
+      <c r="AI3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AK3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="W3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="X3" s="8" t="s">
+      <c r="AM3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="Y3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z3" s="8" t="s">
+      <c r="AQ3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="AA3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AU3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AV3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="AC3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD3" s="8" t="s">
+      <c r="AY3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AZ3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BA3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="AE3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF3" s="8" t="s">
+      <c r="BC3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="AG3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH3" s="8" t="s">
+      <c r="BG3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BH3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="AI3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ3" s="8" t="s">
+      <c r="BK3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BL3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BN3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="AK3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AL3" s="8" t="s">
+      <c r="BO3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BP3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BQ3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="AM3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN3" s="8" t="s">
+      <c r="BS3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BT3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BU3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BV3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="AO3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AP3" s="8" t="s">
+      <c r="BW3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="BX3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BY3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BZ3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="AQ3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR3" s="8" t="s">
+      <c r="CA3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="CB3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="CC3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="CD3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="AS3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT3" s="8" t="s">
+      <c r="CE3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="CF3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="CG3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="CH3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="AU3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AV3" s="8" t="s">
+      <c r="CI3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="CJ3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="CK3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="CL3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="AW3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AX3" s="8" t="s">
+      <c r="CM3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="CN3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="CO3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="CP3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="AY3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AZ3" s="8" t="s">
+      <c r="CQ3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="CR3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="CS3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="CT3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="BA3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BB3" s="8" t="s">
+      <c r="CU3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="CV3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="CW3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="CX3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="BC3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BD3" s="8" t="s">
+      <c r="CY3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="CZ3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="DA3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="DB3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="BE3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BF3" s="8" t="s">
+      <c r="DC3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="DD3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="DE3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="DF3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="BG3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BH3" s="8" t="s">
+      <c r="DG3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="DH3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="DI3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="DJ3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="BI3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BJ3" s="8" t="s">
+      <c r="DK3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="DM3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="DN3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="BK3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BL3" s="8" t="s">
+      <c r="DO3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="DP3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="DQ3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="DR3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="BM3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BN3" s="8" t="s">
+      <c r="DS3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="DT3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="DU3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="DV3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="BO3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BP3" s="8" t="s">
+      <c r="DW3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="DX3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="DY3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="DZ3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="BQ3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BR3" s="8" t="s">
+      <c r="EA3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="EB3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="EC3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="ED3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="BS3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BT3" s="8" t="s">
+      <c r="EE3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="EF3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="EG3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="EH3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="BU3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BV3" s="8" t="s">
+      <c r="EI3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="EJ3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="EK3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="EL3" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="BW3" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BX3" s="8" t="s">
+      <c r="EM3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="EN3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="EO3" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="EP3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="BY3" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:77" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8" t="str">
-        <f ca="1">IF($A$4 = "Специалитет",VLOOKUP(B4,Специалитет_название,2),IF($A$4 = "Бакалавриат",VLOOKUP(B4,Бакалавриат_название,2),IF($A$4 = "Магистратура",VLOOKUP(B4,Магистратура_название,2),IF($A$4 = "ККМТ",VLOOKUP(B4,ККМТ_название,2),IF($A$4 = "ТТД",VLOOKUP(B4,ТТД_название,2),0)))))</f>
-        <v>Прикладная информатика</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7">
-        <f>SUM(H4,J4)</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <f>SUM(I4,K4)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7">
-        <f>SUM(N4,P4)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <f>SUM(O4,Q4)</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7">
-        <f>SUM(T4,V4)</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="7">
-        <f>SUM(U4,W4)</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7">
-        <f>SUM(Z4,AB4)</f>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="7">
-        <f>SUM(AA4,AC4)</f>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7">
-        <f>SUM(AF4,AH4)</f>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="7">
-        <f>SUM(AG4,AI4)</f>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7">
-        <f>SUM(AL4,AN4)</f>
-        <v>0</v>
-      </c>
-      <c r="AK4" s="7">
-        <f>SUM(AM4,AO4)</f>
-        <v>0</v>
-      </c>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="7"/>
-      <c r="AP4" s="7">
-        <f>SUM(AR4,AT4)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="7">
-        <f>SUM(AS4,AU4)</f>
-        <v>0</v>
-      </c>
-      <c r="AR4" s="7"/>
-      <c r="AS4" s="7"/>
-      <c r="AT4" s="7"/>
-      <c r="AU4" s="7"/>
-      <c r="AV4" s="7">
-        <f>SUM(AX4,AZ4)</f>
-        <v>0</v>
-      </c>
-      <c r="AW4" s="7">
-        <f>SUM(AY4,BA4)</f>
-        <v>0</v>
-      </c>
-      <c r="AX4" s="7"/>
-      <c r="AY4" s="7"/>
-      <c r="AZ4" s="7"/>
-      <c r="BA4" s="7"/>
-      <c r="BB4" s="7">
-        <f>SUM(BD4,BF4)</f>
-        <v>0</v>
-      </c>
-      <c r="BC4" s="7">
-        <f>SUM(BE4,BG4)</f>
-        <v>0</v>
-      </c>
-      <c r="BD4" s="7"/>
-      <c r="BE4" s="7"/>
-      <c r="BF4" s="7"/>
-      <c r="BG4" s="7"/>
-      <c r="BH4" s="7">
-        <f>SUM(BJ4,BL4)</f>
-        <v>0</v>
-      </c>
-      <c r="BI4" s="7">
-        <f>SUM(BK4,BM4)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ4" s="7"/>
-      <c r="BK4" s="7"/>
-      <c r="BL4" s="7"/>
-      <c r="BM4" s="7"/>
-      <c r="BN4" s="7">
-        <f>SUM(BP4,BR4)</f>
-        <v>0</v>
-      </c>
-      <c r="BO4" s="7">
-        <f>SUM(BQ4,BS4)</f>
-        <v>0</v>
-      </c>
-      <c r="BP4" s="7"/>
-      <c r="BQ4" s="7"/>
-      <c r="BR4" s="7"/>
-      <c r="BS4" s="7"/>
-      <c r="BT4" s="7">
-        <f>SUM(BV4,BX4)</f>
-        <v>0</v>
-      </c>
-      <c r="BU4" s="7">
-        <f>SUM(BW4,BY4)</f>
-        <v>0</v>
-      </c>
-      <c r="BV4" s="7"/>
-      <c r="BW4" s="7"/>
-      <c r="BX4" s="7"/>
-      <c r="BY4" s="7"/>
+      <c r="EQ3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="ER3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="ES3" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:149" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="str">
+        <f>IF($A$4 = "Специалитет",VLOOKUP(B4,Специалитет_название,2),IF($A$4 = "Бакалавриат",VLOOKUP(B4,Бакалавриат_название,2),IF($A$4 = "Магистратура",VLOOKUP(B4,Магистратура_название,2),IF($A$4 = "ККМТ",VLOOKUP(B4,ККМТ_название,2),IF($A$4 = "ТТД",VLOOKUP(B4,ТТД_название,2),"")))))</f>
+        <v/>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9">
+        <f>SUM(J4,N4)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <f>SUM(K4,O4)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <f>SUM(L4,P4)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <f>SUM(M4,Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="9">
+        <f>SUM(V4,Z4)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="9">
+        <f>SUM(W4,AA4)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="8">
+        <f>SUM(X4,AB4)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="8">
+        <f>SUM(Y4,AC4)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="9">
+        <f>SUM(AH4,AL4)</f>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="9">
+        <f>SUM(AI4,AM4)</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="8">
+        <f>SUM(AJ4,AN4)</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="8">
+        <f>SUM(AK4,AO4)</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="9"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="9">
+        <f>SUM(AT4,AX4)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="9">
+        <f>SUM(AU4,AY4)</f>
+        <v>0</v>
+      </c>
+      <c r="AR4" s="8">
+        <f>SUM(AV4,AZ4)</f>
+        <v>0</v>
+      </c>
+      <c r="AS4" s="8">
+        <f>SUM(AW4,BA4)</f>
+        <v>0</v>
+      </c>
+      <c r="AT4" s="9"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="9"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="9">
+        <f>SUM(BF4,BJ4)</f>
+        <v>0</v>
+      </c>
+      <c r="BC4" s="9">
+        <f>SUM(BG4,BK4)</f>
+        <v>0</v>
+      </c>
+      <c r="BD4" s="8">
+        <f>SUM(BH4,BL4)</f>
+        <v>0</v>
+      </c>
+      <c r="BE4" s="8">
+        <f>SUM(BI4,BM4)</f>
+        <v>0</v>
+      </c>
+      <c r="BF4" s="9"/>
+      <c r="BG4" s="9"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="8"/>
+      <c r="BJ4" s="9"/>
+      <c r="BK4" s="9"/>
+      <c r="BL4" s="8"/>
+      <c r="BM4" s="8"/>
+      <c r="BN4" s="9">
+        <f>SUM(BR4,BV4)</f>
+        <v>0</v>
+      </c>
+      <c r="BO4" s="9">
+        <f>SUM(BS4,BW4)</f>
+        <v>0</v>
+      </c>
+      <c r="BP4" s="8">
+        <f>SUM(BT4,BX4)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="8">
+        <f>SUM(BU4,BY4)</f>
+        <v>0</v>
+      </c>
+      <c r="BR4" s="9"/>
+      <c r="BS4" s="9"/>
+      <c r="BT4" s="8"/>
+      <c r="BU4" s="8"/>
+      <c r="BV4" s="9"/>
+      <c r="BW4" s="9"/>
+      <c r="BX4" s="8"/>
+      <c r="BY4" s="8"/>
+      <c r="BZ4" s="9">
+        <f>SUM(CD4,CH4)</f>
+        <v>0</v>
+      </c>
+      <c r="CA4" s="9">
+        <f>SUM(CE4,CI4)</f>
+        <v>0</v>
+      </c>
+      <c r="CB4" s="8">
+        <f>SUM(CF4,CJ4)</f>
+        <v>0</v>
+      </c>
+      <c r="CC4" s="8">
+        <f>SUM(CG4,CK4)</f>
+        <v>0</v>
+      </c>
+      <c r="CD4" s="9"/>
+      <c r="CE4" s="9"/>
+      <c r="CF4" s="8"/>
+      <c r="CG4" s="8"/>
+      <c r="CH4" s="9"/>
+      <c r="CI4" s="9"/>
+      <c r="CJ4" s="8"/>
+      <c r="CK4" s="8"/>
+      <c r="CL4" s="9">
+        <f>SUM(CP4,CT4)</f>
+        <v>0</v>
+      </c>
+      <c r="CM4" s="9">
+        <f>SUM(CQ4,CU4)</f>
+        <v>0</v>
+      </c>
+      <c r="CN4" s="8">
+        <f>SUM(CR4,CV4)</f>
+        <v>0</v>
+      </c>
+      <c r="CO4" s="8">
+        <f>SUM(CS4,CW4)</f>
+        <v>0</v>
+      </c>
+      <c r="CP4" s="9"/>
+      <c r="CQ4" s="9"/>
+      <c r="CR4" s="8"/>
+      <c r="CS4" s="8"/>
+      <c r="CT4" s="9"/>
+      <c r="CU4" s="9"/>
+      <c r="CV4" s="8"/>
+      <c r="CW4" s="8"/>
+      <c r="CX4" s="9">
+        <f>SUM(DB4,DF4)</f>
+        <v>0</v>
+      </c>
+      <c r="CY4" s="9">
+        <f>SUM(DC4,DG4)</f>
+        <v>0</v>
+      </c>
+      <c r="CZ4" s="8">
+        <f>SUM(DD4,DH4)</f>
+        <v>0</v>
+      </c>
+      <c r="DA4" s="8">
+        <f>SUM(DE4,DI4)</f>
+        <v>0</v>
+      </c>
+      <c r="DB4" s="9"/>
+      <c r="DC4" s="9"/>
+      <c r="DD4" s="8"/>
+      <c r="DE4" s="8"/>
+      <c r="DF4" s="9"/>
+      <c r="DG4" s="9"/>
+      <c r="DH4" s="8"/>
+      <c r="DI4" s="8"/>
+      <c r="DJ4" s="9">
+        <f>SUM(DN4,DR4)</f>
+        <v>0</v>
+      </c>
+      <c r="DK4" s="9">
+        <f>SUM(DO4,DS4)</f>
+        <v>0</v>
+      </c>
+      <c r="DL4" s="8">
+        <f>SUM(DP4,DT4)</f>
+        <v>0</v>
+      </c>
+      <c r="DM4" s="8">
+        <f>SUM(DQ4,DU4)</f>
+        <v>0</v>
+      </c>
+      <c r="DN4" s="9"/>
+      <c r="DO4" s="9"/>
+      <c r="DP4" s="8"/>
+      <c r="DQ4" s="8"/>
+      <c r="DR4" s="9"/>
+      <c r="DS4" s="9"/>
+      <c r="DT4" s="8"/>
+      <c r="DU4" s="8"/>
+      <c r="DV4" s="9">
+        <f>SUM(DZ4,ED4)</f>
+        <v>0</v>
+      </c>
+      <c r="DW4" s="9">
+        <f>SUM(EA4,EE4)</f>
+        <v>0</v>
+      </c>
+      <c r="DX4" s="8">
+        <f>SUM(EB4,EF4)</f>
+        <v>0</v>
+      </c>
+      <c r="DY4" s="8">
+        <f>SUM(EC4,EG4)</f>
+        <v>0</v>
+      </c>
+      <c r="DZ4" s="9"/>
+      <c r="EA4" s="9"/>
+      <c r="EB4" s="8"/>
+      <c r="EC4" s="8"/>
+      <c r="ED4" s="9"/>
+      <c r="EE4" s="9"/>
+      <c r="EF4" s="8"/>
+      <c r="EG4" s="8"/>
+      <c r="EH4" s="9">
+        <f>SUM(EL4,EP4)</f>
+        <v>0</v>
+      </c>
+      <c r="EI4" s="9">
+        <f>SUM(EM4,EQ4)</f>
+        <v>0</v>
+      </c>
+      <c r="EJ4" s="8">
+        <f>SUM(EN4,ER4)</f>
+        <v>0</v>
+      </c>
+      <c r="EK4" s="8">
+        <f>SUM(EO4,ES4)</f>
+        <v>0</v>
+      </c>
+      <c r="EL4" s="9"/>
+      <c r="EM4" s="9"/>
+      <c r="EN4" s="8"/>
+      <c r="EO4" s="8"/>
+      <c r="EP4" s="9"/>
+      <c r="EQ4" s="9"/>
+      <c r="ER4" s="8"/>
+      <c r="ES4" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="BT2:BY2"/>
-    <mergeCell ref="AJ2:AO2"/>
-    <mergeCell ref="AP2:AU2"/>
-    <mergeCell ref="AV2:BA2"/>
-    <mergeCell ref="BB2:BG2"/>
-    <mergeCell ref="BH2:BM2"/>
-    <mergeCell ref="BN2:BS2"/>
-    <mergeCell ref="R1:AC1"/>
-    <mergeCell ref="AD1:AO1"/>
-    <mergeCell ref="AP1:BA1"/>
-    <mergeCell ref="BB1:BM1"/>
-    <mergeCell ref="BN1:BY1"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="R2:W2"/>
-    <mergeCell ref="X2:AC2"/>
-    <mergeCell ref="AD2:AI2"/>
+    <mergeCell ref="EH2:ES2"/>
+    <mergeCell ref="BN2:BY2"/>
+    <mergeCell ref="BZ2:CK2"/>
+    <mergeCell ref="CL2:CW2"/>
+    <mergeCell ref="CX2:DI2"/>
+    <mergeCell ref="DJ2:DU2"/>
+    <mergeCell ref="DV2:EG2"/>
+    <mergeCell ref="AD1:BA1"/>
+    <mergeCell ref="BB1:BY1"/>
+    <mergeCell ref="BZ1:CW1"/>
+    <mergeCell ref="CX1:DU1"/>
+    <mergeCell ref="DV1:ES1"/>
+    <mergeCell ref="F2:Q2"/>
+    <mergeCell ref="R2:AC2"/>
+    <mergeCell ref="AD2:AO2"/>
+    <mergeCell ref="AP2:BA2"/>
+    <mergeCell ref="BB2:BM2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:Q1"/>
+    <mergeCell ref="F1:AC1"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
@@ -2941,8 +4669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2963,26 +4691,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="11"/>
+      <c r="J1" s="13"/>
       <c r="L1" s="1" t="s">
         <v>42</v>
       </c>
